--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_21_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>915802.991517617</v>
+        <v>913103.9394237094</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -665,19 +665,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="F2" t="n">
-        <v>28.33592091243833</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>187.5255871663199</v>
+        <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +704,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>11.36529914368134</v>
+        <v>11.36529914368128</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.833359060644</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V2" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -735,7 +735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>138.2613113589523</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -783,25 +783,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>26.91122581714234</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>15.4022924851448</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -823,13 +823,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>40.27514111676936</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.43375830553084</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.343082173845801</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="U4" t="n">
-        <v>138.3956966967179</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="V4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>187.5255871663199</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>268.5086175791928</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>350.2361289413585</v>
+        <v>12.12176100286049</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>87.84129258094067</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>136.5335673127886</v>
+        <v>136.5335673127887</v>
       </c>
       <c r="T5" t="n">
-        <v>209.1711248816494</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.0911747868545</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -978,22 +978,22 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>73.8927776319325</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>104.9418659566813</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.6415446830818</v>
       </c>
       <c r="H6" t="n">
-        <v>95.79797317841049</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.79801895224391</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,7 +1026,7 @@
         <v>140.0697787646035</v>
       </c>
       <c r="T6" t="n">
-        <v>193.3045852332498</v>
+        <v>193.3045852332499</v>
       </c>
       <c r="U6" t="n">
         <v>225.8294102072821</v>
@@ -1051,25 +1051,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>60.93218353038053</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>64.5132571180538</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5641028040799</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>149.5409427785072</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>112.5404054555729</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>309.3164443333229</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>117.5235404623155</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,13 +1184,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1300,13 +1300,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542835</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>245.5761046894312</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,22 +1373,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>304.00651251998</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>410.4696069132659</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184569</v>
+        <v>24.1466220418456</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615218</v>
+        <v>98.88510599615213</v>
       </c>
       <c r="T11" t="n">
-        <v>1.674347496556866</v>
+        <v>201.9388203544492</v>
       </c>
       <c r="U11" t="n">
         <v>250.959002459687</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1461,13 +1461,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.7575643133521</v>
+        <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.26058381812553</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530795</v>
+        <v>10.48847705530792</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,10 +1534,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>18.07541376451587</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.81330679905241</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793234</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1613,13 +1613,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722635</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187883</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,16 +1765,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740359</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>172.1249649038651</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1853,7 +1853,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417125</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695614</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,10 +2002,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>38.61213096655138</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272855</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795642</v>
       </c>
     </row>
     <row r="20">
@@ -2093,7 +2093,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187879</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2239,19 +2239,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>24.83266606353121</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2476,10 +2476,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -2488,7 +2488,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>142.1343012721678</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>167.3637267182089</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2770,7 +2770,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,16 +2953,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699809</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>74.99129529219145</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,25 +3187,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.799772605715943</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>50.06209150957585</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>3.006892987833737</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>168.97752971242</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3509,7 +3509,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722608</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3673,10 +3673,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703276</v>
+        <v>99.97427419833791</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417123</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>120.7871326503972</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,10 +3907,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>57.24347904696353</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456775</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1.799772605716844</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>359.7826784871772</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="C2" t="n">
-        <v>359.7826784871772</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D2" t="n">
-        <v>359.7826784871772</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="E2" t="n">
-        <v>359.7826784871772</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>331.1605361513809</v>
+        <v>28.23218154912182</v>
       </c>
       <c r="G2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>141.7407511348962</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678508</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058939</v>
+        <v>80.81213159058969</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079184</v>
+        <v>191.8743094079186</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644753</v>
+        <v>347.1218190644756</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123826</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985582</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020263</v>
+        <v>734.461172602027</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R2" t="n">
-        <v>738.6222485201467</v>
+        <v>738.6222485201477</v>
       </c>
       <c r="S2" t="n">
-        <v>738.6222485201467</v>
+        <v>603.43703734778</v>
       </c>
       <c r="T2" t="n">
-        <v>738.6222485201467</v>
+        <v>603.43703734778</v>
       </c>
       <c r="U2" t="n">
-        <v>738.6222485201467</v>
+        <v>414.0172523312951</v>
       </c>
       <c r="V2" t="n">
-        <v>549.202463503662</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="W2" t="n">
-        <v>549.202463503662</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="X2" t="n">
-        <v>549.202463503662</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="Y2" t="n">
-        <v>359.7826784871772</v>
+        <v>224.5974673148102</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="C3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="D3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024219</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772649</v>
+        <v>183.5548280772651</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140244</v>
+        <v>338.7690911140246</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546601</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476348</v>
+        <v>649.2101578476353</v>
       </c>
       <c r="P3" t="n">
-        <v>739.598998701706</v>
+        <v>739.5989987017067</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652795</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198758</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="T3" t="n">
-        <v>409.399488203391</v>
+        <v>722.9192922843284</v>
       </c>
       <c r="U3" t="n">
-        <v>393.841617006275</v>
+        <v>533.4995072678435</v>
       </c>
       <c r="V3" t="n">
-        <v>204.4218319897903</v>
+        <v>344.0797222513585</v>
       </c>
       <c r="W3" t="n">
-        <v>204.4218319897903</v>
+        <v>344.0797222513585</v>
       </c>
       <c r="X3" t="n">
-        <v>15.00204697330559</v>
+        <v>154.6599372348736</v>
       </c>
       <c r="Y3" t="n">
-        <v>15.00204697330559</v>
+        <v>154.6599372348736</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.67250990818523</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="C4" t="n">
-        <v>38.67250990818523</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="D4" t="n">
-        <v>38.67250990818523</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="E4" t="n">
-        <v>38.67250990818523</v>
+        <v>330.580817908301</v>
       </c>
       <c r="F4" t="n">
-        <v>38.67250990818523</v>
+        <v>183.6908704103906</v>
       </c>
       <c r="G4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>38.67250990818523</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>15.00204697330559</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330559</v>
+        <v>106.7151088594234</v>
       </c>
       <c r="L4" t="n">
-        <v>187.8896250884407</v>
+        <v>279.6026869745585</v>
       </c>
       <c r="M4" t="n">
-        <v>373.5399563830973</v>
+        <v>447.395098931819</v>
       </c>
       <c r="N4" t="n">
-        <v>559.190287677754</v>
+        <v>633.0454302264759</v>
       </c>
       <c r="O4" t="n">
-        <v>721.9284911143042</v>
+        <v>634.3723839608025</v>
       </c>
       <c r="P4" t="n">
-        <v>750.1023486652795</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="Q4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="R4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="S4" t="n">
-        <v>746.7254979846272</v>
+        <v>750.1023486652803</v>
       </c>
       <c r="T4" t="n">
-        <v>746.7254979846272</v>
+        <v>560.6825636487954</v>
       </c>
       <c r="U4" t="n">
-        <v>606.9318649576394</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="V4" t="n">
-        <v>417.5120799411546</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="W4" t="n">
-        <v>228.0922949246699</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="X4" t="n">
-        <v>38.67250990818523</v>
+        <v>371.2627786323105</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.67250990818523</v>
+        <v>371.2627786323105</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>845.2798054755033</v>
+        <v>1215.547037498885</v>
       </c>
       <c r="C5" t="n">
-        <v>845.2798054755033</v>
+        <v>846.5845205584731</v>
       </c>
       <c r="D5" t="n">
-        <v>487.0141068687528</v>
+        <v>846.5845205584731</v>
       </c>
       <c r="E5" t="n">
-        <v>487.0141068687528</v>
+        <v>460.7962679602289</v>
       </c>
       <c r="F5" t="n">
-        <v>480.0686061195493</v>
+        <v>49.81036317062134</v>
       </c>
       <c r="G5" t="n">
-        <v>126.2947385020155</v>
+        <v>37.56616013742893</v>
       </c>
       <c r="H5" t="n">
-        <v>126.2947385020155</v>
+        <v>37.56616013742893</v>
       </c>
       <c r="I5" t="n">
-        <v>37.56616013742897</v>
+        <v>37.56616013742893</v>
       </c>
       <c r="J5" t="n">
-        <v>125.6123058620864</v>
+        <v>125.6123058620863</v>
       </c>
       <c r="K5" t="n">
-        <v>308.3091729405691</v>
+        <v>308.3091729405688</v>
       </c>
       <c r="L5" t="n">
-        <v>571.8625535714427</v>
+        <v>571.8625535714418</v>
       </c>
       <c r="M5" t="n">
-        <v>896.7859082672646</v>
+        <v>896.7859082672637</v>
       </c>
       <c r="N5" t="n">
-        <v>1231.580670917807</v>
+        <v>1231.580670917805</v>
       </c>
       <c r="O5" t="n">
-        <v>1534.382610379514</v>
+        <v>1534.382610379512</v>
       </c>
       <c r="P5" t="n">
-        <v>1758.316059280663</v>
+        <v>1758.316059280661</v>
       </c>
       <c r="Q5" t="n">
-        <v>1878.308006871449</v>
+        <v>1878.308006871446</v>
       </c>
       <c r="R5" t="n">
-        <v>1878.308006871449</v>
+        <v>1878.308006871446</v>
       </c>
       <c r="S5" t="n">
-        <v>1740.395312616107</v>
+        <v>1740.395312616104</v>
       </c>
       <c r="T5" t="n">
-        <v>1529.111348089188</v>
+        <v>1740.395312616104</v>
       </c>
       <c r="U5" t="n">
-        <v>1529.111348089188</v>
+        <v>1486.767863336453</v>
       </c>
       <c r="V5" t="n">
-        <v>1198.048460745617</v>
+        <v>1486.767863336453</v>
       </c>
       <c r="W5" t="n">
-        <v>845.2798054755033</v>
+        <v>1486.767863336453</v>
       </c>
       <c r="X5" t="n">
-        <v>845.2798054755033</v>
+        <v>1486.767863336453</v>
       </c>
       <c r="Y5" t="n">
-        <v>845.2798054755033</v>
+        <v>1486.767863336453</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>408.4544457641134</v>
+        <v>408.4544457641111</v>
       </c>
       <c r="C6" t="n">
-        <v>408.4544457641134</v>
+        <v>408.4544457641111</v>
       </c>
       <c r="D6" t="n">
-        <v>408.4544457641134</v>
+        <v>333.8152764389267</v>
       </c>
       <c r="E6" t="n">
-        <v>408.4544457641134</v>
+        <v>174.5778214334712</v>
       </c>
       <c r="F6" t="n">
-        <v>302.4525609593848</v>
+        <v>174.5778214334712</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4408996633425</v>
+        <v>37.56616013742893</v>
       </c>
       <c r="H6" t="n">
-        <v>68.67527019020061</v>
+        <v>37.56616013742893</v>
       </c>
       <c r="I6" t="n">
-        <v>37.56616013742897</v>
+        <v>37.56616013742893</v>
       </c>
       <c r="J6" t="n">
-        <v>186.2745935578025</v>
+        <v>71.18799439755949</v>
       </c>
       <c r="K6" t="n">
-        <v>321.8944882402606</v>
+        <v>206.8078890800174</v>
       </c>
       <c r="L6" t="n">
-        <v>550.5747143305016</v>
+        <v>435.4881151702583</v>
       </c>
       <c r="M6" t="n">
-        <v>836.7906202006418</v>
+        <v>721.7040210403983</v>
       </c>
       <c r="N6" t="n">
-        <v>1144.990454352904</v>
+        <v>1144.990454352902</v>
       </c>
       <c r="O6" t="n">
-        <v>1404.713295678567</v>
+        <v>1404.713295678565</v>
       </c>
       <c r="P6" t="n">
-        <v>1593.830707169296</v>
+        <v>1593.830707169294</v>
       </c>
       <c r="Q6" t="n">
-        <v>1878.308006871449</v>
+        <v>1878.308006871446</v>
       </c>
       <c r="R6" t="n">
-        <v>1878.308006871449</v>
+        <v>1878.308006871446</v>
       </c>
       <c r="S6" t="n">
-        <v>1736.823381856698</v>
+        <v>1736.823381856696</v>
       </c>
       <c r="T6" t="n">
-        <v>1541.566225055435</v>
+        <v>1541.566225055433</v>
       </c>
       <c r="U6" t="n">
-        <v>1313.455709694544</v>
+        <v>1313.455709694542</v>
       </c>
       <c r="V6" t="n">
-        <v>1078.303601462802</v>
+        <v>1078.303601462799</v>
       </c>
       <c r="W6" t="n">
-        <v>824.0662447346001</v>
+        <v>824.0662447345978</v>
       </c>
       <c r="X6" t="n">
-        <v>616.2147445290673</v>
+        <v>616.214744529065</v>
       </c>
       <c r="Y6" t="n">
-        <v>408.4544457641134</v>
+        <v>408.4544457641111</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>830.5093104664331</v>
+        <v>320.1795202931872</v>
       </c>
       <c r="C7" t="n">
-        <v>830.5093104664331</v>
+        <v>151.2433373652803</v>
       </c>
       <c r="D7" t="n">
-        <v>765.3444042865808</v>
+        <v>151.2433373652803</v>
       </c>
       <c r="E7" t="n">
-        <v>617.4313107041877</v>
+        <v>151.2433373652803</v>
       </c>
       <c r="F7" t="n">
-        <v>470.5413632062774</v>
+        <v>151.2433373652803</v>
       </c>
       <c r="G7" t="n">
-        <v>302.2947947173078</v>
+        <v>151.2433373652803</v>
       </c>
       <c r="H7" t="n">
-        <v>151.2433373652804</v>
+        <v>151.2433373652803</v>
       </c>
       <c r="I7" t="n">
-        <v>37.56616013742897</v>
+        <v>37.56616013742893</v>
       </c>
       <c r="J7" t="n">
-        <v>45.01194249256516</v>
+        <v>45.01194249256508</v>
       </c>
       <c r="K7" t="n">
-        <v>187.084486869602</v>
+        <v>187.0844868696018</v>
       </c>
       <c r="L7" t="n">
-        <v>424.4148644101276</v>
+        <v>424.4148644101273</v>
       </c>
       <c r="M7" t="n">
-        <v>685.0355944467478</v>
+        <v>685.0355944467475</v>
       </c>
       <c r="N7" t="n">
-        <v>944.8939624609243</v>
+        <v>944.8939624609238</v>
       </c>
       <c r="O7" t="n">
-        <v>1168.898929103172</v>
+        <v>1168.898929103171</v>
       </c>
       <c r="P7" t="n">
-        <v>1337.053193890528</v>
+        <v>1337.053193890527</v>
       </c>
       <c r="Q7" t="n">
-        <v>1370.039410552807</v>
+        <v>1370.039410552806</v>
       </c>
       <c r="R7" t="n">
-        <v>1255.760791512122</v>
+        <v>1255.760791512121</v>
       </c>
       <c r="S7" t="n">
-        <v>1054.59914385994</v>
+        <v>1054.599143859939</v>
       </c>
       <c r="T7" t="n">
-        <v>830.5093104664331</v>
+        <v>830.5093104664322</v>
       </c>
       <c r="U7" t="n">
-        <v>830.5093104664331</v>
+        <v>830.5093104664322</v>
       </c>
       <c r="V7" t="n">
-        <v>830.5093104664331</v>
+        <v>830.5093104664322</v>
       </c>
       <c r="W7" t="n">
-        <v>830.5093104664331</v>
+        <v>830.5093104664322</v>
       </c>
       <c r="X7" t="n">
-        <v>830.5093104664331</v>
+        <v>602.5197595684149</v>
       </c>
       <c r="Y7" t="n">
-        <v>830.5093104664331</v>
+        <v>381.7271804248848</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1488.368453810659</v>
+        <v>970.5047989601121</v>
       </c>
       <c r="C8" t="n">
-        <v>1119.405936870247</v>
+        <v>601.5422820197005</v>
       </c>
       <c r="D8" t="n">
-        <v>761.1402382634967</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="E8" t="n">
-        <v>375.3519856652525</v>
+        <v>243.2765834129499</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331017</v>
+        <v>236.3310826637465</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816085</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4832,22 +4832,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056585</v>
+        <v>2100.01262627016</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.507785786471</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="X8" t="n">
-        <v>1878.507785786471</v>
+        <v>1747.243971000046</v>
       </c>
       <c r="Y8" t="n">
-        <v>1488.368453810659</v>
+        <v>1357.104639024234</v>
       </c>
     </row>
     <row r="9">
@@ -4869,34 +4869,34 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>507.2413987429759</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L9" t="n">
-        <v>801.9449557744476</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M9" t="n">
-        <v>1165.206974733668</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N9" t="n">
-        <v>1552.492103330613</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O9" t="n">
-        <v>1884.562538506775</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657496</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378427</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255069</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>249.6324392431138</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452035</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.24678656800311</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.24678656800311</v>
@@ -4960,25 +4960,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074497</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.039399139519</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959893</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2040.546330724785</v>
+        <v>1485.490329133571</v>
       </c>
       <c r="C11" t="n">
-        <v>1671.583813784374</v>
+        <v>1116.527812193159</v>
       </c>
       <c r="D11" t="n">
-        <v>1313.318115177623</v>
+        <v>1116.527812193159</v>
       </c>
       <c r="E11" t="n">
-        <v>927.5298625793789</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="F11" t="n">
-        <v>516.5439577897713</v>
+        <v>809.4505268194423</v>
       </c>
       <c r="G11" t="n">
-        <v>101.9281932309163</v>
+        <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
         <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J11" t="n">
-        <v>304.4060796706888</v>
+        <v>304.4060796706899</v>
       </c>
       <c r="K11" t="n">
-        <v>695.1615405656951</v>
+        <v>695.1615405656967</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625328</v>
+        <v>1216.830004625331</v>
       </c>
       <c r="M11" t="n">
-        <v>1828.956123087829</v>
+        <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.60089048404</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535292</v>
+        <v>3033.988513535296</v>
       </c>
       <c r="P11" t="n">
-        <v>3493.127967479991</v>
+        <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464056</v>
+        <v>3789.74982946406</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796032</v>
+        <v>3876.883295796035</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345373</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3775.308090247841</v>
+        <v>3573.020743926741</v>
       </c>
       <c r="U11" t="n">
-        <v>3521.814148369369</v>
+        <v>3319.526802048269</v>
       </c>
       <c r="V11" t="n">
-        <v>3190.751261025799</v>
+        <v>2988.463914704698</v>
       </c>
       <c r="W11" t="n">
-        <v>3190.751261025799</v>
+        <v>2635.695259434584</v>
       </c>
       <c r="X11" t="n">
-        <v>2817.285502764719</v>
+        <v>2262.229501173504</v>
       </c>
       <c r="Y11" t="n">
-        <v>2427.146170788907</v>
+        <v>1872.090169197692</v>
       </c>
     </row>
     <row r="12">
@@ -5109,37 +5109,37 @@
         <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
-        <v>88.13208718390847</v>
+        <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53766591592064</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>272.7431585655903</v>
+        <v>470.7769964046653</v>
       </c>
       <c r="L12" t="n">
-        <v>691.4401992235415</v>
+        <v>889.4740370626168</v>
       </c>
       <c r="M12" t="n">
-        <v>1199.396765180069</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1735.206074881279</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2203.147119213801</v>
+        <v>2000.207762193668</v>
       </c>
       <c r="P12" t="n">
-        <v>2559.377995458575</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>264.7318425453587</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>95.79565961745175</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="D13" t="n">
-        <v>95.79565961745175</v>
+        <v>225.4507594983138</v>
       </c>
       <c r="E13" t="n">
-        <v>95.79565961745175</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="F13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="G13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="H13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592064</v>
+        <v>77.53766591592071</v>
       </c>
       <c r="J13" t="n">
         <v>136.8552218758647</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648138</v>
+        <v>364.1690246648142</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344803</v>
+        <v>710.5788654344807</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336947</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818663</v>
+        <v>1786.049800818664</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010721</v>
+        <v>2042.940349010722</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742807</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742807</v>
+        <v>2056.743466925583</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276102</v>
+        <v>1868.627619458879</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710543</v>
+        <v>1647.736286893319</v>
       </c>
       <c r="U13" t="n">
-        <v>1439.264095659993</v>
+        <v>1358.64459384277</v>
       </c>
       <c r="V13" t="n">
-        <v>1184.579607454107</v>
+        <v>1103.960105636883</v>
       </c>
       <c r="W13" t="n">
-        <v>895.1624374171458</v>
+        <v>814.5429355999222</v>
       </c>
       <c r="X13" t="n">
-        <v>667.1728865191285</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>446.3803073755984</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1590.547811004715</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362687</v>
@@ -5276,16 +5276,16 @@
         <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797191</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756267</v>
+        <v>429.5088224239598</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021788</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756786</v>
+        <v>1540.888753373306</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996073</v>
+        <v>2092.798483612593</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.972636491141</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.7825789706077</v>
+        <v>513.8536007400724</v>
       </c>
       <c r="C16" t="n">
-        <v>391.8463960427008</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>241.729756630365</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="E16" t="n">
-        <v>93.81666304797191</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F16" t="n">
         <v>93.81666304797191</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5479,7 +5479,7 @@
         <v>916.2946447138422</v>
       </c>
       <c r="Y16" t="n">
-        <v>742.4310438008474</v>
+        <v>695.5020655703121</v>
       </c>
     </row>
     <row r="17">
@@ -5492,13 +5492,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5510,28 +5510,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852256</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413022</v>
+        <v>538.7363435406077</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133953</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133953</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F19" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797189</v>
@@ -5674,7 +5674,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L19" t="n">
         <v>826.1405381797745</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2407.960931088795</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2407.960931088795</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.4004511715419</v>
+        <v>720.3848083708474</v>
       </c>
     </row>
     <row r="20">
@@ -5726,37 +5726,37 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168625</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
@@ -5765,16 +5765,16 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492579</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,34 +5884,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>555.8158034133955</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133955</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310024</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>261.012762333092</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L22" t="n">
         <v>826.1405381797745</v>
@@ -5920,7 +5920,7 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
         <v>2035.089393279803</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5984,52 +5984,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>214.9229991561132</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536384</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257315</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133958</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310027</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038385</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797787</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910813</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570822</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279807</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580265</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580265</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603206</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947404</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625426</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
         <v>1948.813509611463</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075793</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>849.3843576263195</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>680.448174698413</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>530.3315352860773</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>382.4184417036842</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6388,7 +6388,7 @@
         <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6397,37 +6397,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2277.908814167929</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2058.307349190869</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1769.232122535067</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1769.232122535067</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1479.814952498107</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1251.825401600089</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1031.032822456559</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,52 +6458,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075815</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,46 +6595,46 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>724.7519863413022</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C31" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121639</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>906.4004511715419</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="32">
@@ -6689,25 +6689,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075799</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
         <v>2950.898526355937</v>
@@ -6716,7 +6716,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
         <v>4562.265728852255</v>
@@ -6780,25 +6780,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>280.8495004245705</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>776.1751066403293</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.899304487669</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C34" t="n">
-        <v>580.899304487669</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D34" t="n">
-        <v>580.899304487669</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="E34" t="n">
-        <v>432.9862109052759</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="F34" t="n">
-        <v>286.0962634073655</v>
+        <v>343.0994656851784</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6868,40 +6868,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="35">
@@ -6929,13 +6929,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075811</v>
@@ -6944,25 +6944,25 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797189</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>707.6725264685177</v>
+        <v>580.8993044876685</v>
       </c>
       <c r="C37" t="n">
-        <v>538.7363435406112</v>
+        <v>411.9631215597615</v>
       </c>
       <c r="D37" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797746</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7111,34 +7111,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2209.233006385774</v>
+        <v>2264.108249235164</v>
       </c>
       <c r="T37" t="n">
-        <v>1989.631541408715</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U37" t="n">
-        <v>1700.556314752913</v>
+        <v>1755.431557602303</v>
       </c>
       <c r="V37" t="n">
-        <v>1445.871826547026</v>
+        <v>1500.747069396416</v>
       </c>
       <c r="W37" t="n">
-        <v>1156.454656510065</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>928.4651056120479</v>
+        <v>983.3403484614383</v>
       </c>
       <c r="Y37" t="n">
-        <v>707.6725264685177</v>
+        <v>762.5477693179082</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
         <v>1204.759558406469</v>
@@ -7166,19 +7166,19 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
         <v>2206.558663014778</v>
@@ -7193,22 +7193,22 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
         <v>3467.980956852888</v>
@@ -7217,7 +7217,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>923.0670414349513</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1520.445529061503</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2148.04349261611</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400721</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121641</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121652</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7388,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>705.9324428257311</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257311</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133953</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2389.141387573227</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2169.539922596168</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1880.464695940366</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1625.780207734479</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1336.363037697518</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1108.373486799501</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>887.5809076559708</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
         <v>1590.547811004713</v>
@@ -7640,7 +7640,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
@@ -7649,7 +7649,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332388</v>
@@ -7661,34 +7661,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400719</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C46" t="n">
-        <v>344.917417812165</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>344.917417812165</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.917417812165</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.917417812165</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.721318527045</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797746</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7819,37 +7819,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703116</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265839</v>
+        <v>15.37922103265835</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8137,22 +8137,22 @@
         <v>33.63624132272333</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402852</v>
+        <v>106.7437663446525</v>
       </c>
       <c r="L4" t="n">
         <v>162.4747015415544</v>
       </c>
       <c r="M4" t="n">
-        <v>171.4142040457083</v>
+        <v>153.375901684702</v>
       </c>
       <c r="N4" t="n">
-        <v>163.8604018711116</v>
+        <v>163.8604018711117</v>
       </c>
       <c r="O4" t="n">
-        <v>163.0416663658825</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>46.56605103777598</v>
+        <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>15.76852197496487</v>
+        <v>15.76852197496495</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>116.2490900608515</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>116.2490900608504</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8316,7 +8316,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>40.00791436438851</v>
+        <v>40.00791436438855</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>211.0329012241562</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>138.9393975111063</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23261,19 +23261,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>77.92385755228173</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>289.9775033393748</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>200.2644728578923</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23318,7 +23318,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23422,10 +23422,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>127.3456342584154</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.8230033569236</v>
@@ -23434,7 +23434,7 @@
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>90.25352389927379</v>
+        <v>90.25352389927376</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905246</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811048</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,19 +23653,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.44677382459197</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922632</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.45968844822971</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,7 +23902,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>27.76311574357027</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253059</v>
       </c>
     </row>
     <row r="20">
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>142.4141550350966</v>
+        <v>46.45968844823057</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856552</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,10 +24364,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345294942</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>110.0033420516602</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>13.6625592834357</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24658,7 +24658,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823144</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>142.4141550350968</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25075,25 +25075,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>146.8157004124964</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>115.462046782693</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>145.6085800303786</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>12.04875628922457</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25561,13 +25561,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194129</v>
+        <v>65.54986409393094</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>46.45968844823062</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,10 +25831,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>123.7828069546811</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345295032</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>138.494940240507</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>891915.9163945338</v>
+        <v>891915.9163945341</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.742893266</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="11">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>981384.7428932661</v>
+        <v>981384.7428932663</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.7428932661</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>981384.7428932663</v>
+        <v>981384.742893266</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
+        <v>451572.9734253557</v>
+      </c>
+      <c r="D2" t="n">
         <v>451572.9734253558</v>
       </c>
-      <c r="D2" t="n">
-        <v>451572.9734253559</v>
-      </c>
       <c r="E2" t="n">
-        <v>402924.0843509176</v>
+        <v>402924.0843509178</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="G2" t="n">
         <v>443930.6298295034</v>
@@ -26332,10 +26332,10 @@
         <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
+        <v>443930.6298295033</v>
+      </c>
+      <c r="J2" t="n">
         <v>443930.6298295034</v>
-      </c>
-      <c r="J2" t="n">
-        <v>443930.6298295033</v>
       </c>
       <c r="K2" t="n">
         <v>443930.6298295034</v>
@@ -26347,13 +26347,13 @@
         <v>443930.6298295034</v>
       </c>
       <c r="N2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="O2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295032</v>
       </c>
       <c r="P2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
     </row>
     <row r="3">
@@ -26363,19 +26363,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208456</v>
       </c>
       <c r="C3" t="n">
-        <v>312214.8578912878</v>
+        <v>312214.857891287</v>
       </c>
       <c r="D3" t="n">
-        <v>175413.4991972671</v>
+        <v>175413.4991972674</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545764</v>
+        <v>313577.1573545771</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704303</v>
+        <v>189308.2687704297</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,19 +26387,19 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.94472854459</v>
+        <v>49064.94472854448</v>
       </c>
       <c r="K3" t="n">
-        <v>72591.00846030134</v>
+        <v>72591.00846030113</v>
       </c>
       <c r="L3" t="n">
-        <v>43280.54279925543</v>
+        <v>43280.54279925562</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273055</v>
+        <v>81897.40371273072</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202397</v>
+        <v>49839.57413202374</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>277470.8484307132</v>
+        <v>277470.8484307131</v>
       </c>
       <c r="C4" t="n">
-        <v>194111.7371403473</v>
+        <v>194111.7371403475</v>
       </c>
       <c r="D4" t="n">
         <v>145155.2306979382</v>
@@ -26427,37 +26427,37 @@
         <v>13501.3895521962</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184274</v>
+      </c>
+      <c r="M4" t="n">
+        <v>13606.80811184273</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13606.80811184279</v>
+      </c>
+      <c r="O4" t="n">
         <v>13606.80811184275</v>
       </c>
-      <c r="M4" t="n">
-        <v>13606.80811184269</v>
-      </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13606.8081118427</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13606.80811184272</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161357</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>79427.52208638293</v>
+        <v>79427.52208638287</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738558</v>
+        <v>85137.48506738564</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239072</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-474240.5779378163</v>
+        <v>-474240.5779378166</v>
       </c>
       <c r="C6" t="n">
-        <v>-134181.1436926622</v>
+        <v>-134181.1436926616</v>
       </c>
       <c r="D6" t="n">
-        <v>38066.47109030592</v>
+        <v>38066.47109030545</v>
       </c>
       <c r="E6" t="n">
-        <v>-9291.947623240572</v>
+        <v>-9513.078937215872</v>
       </c>
       <c r="F6" t="n">
-        <v>139893.0231233233</v>
+        <v>139858.2851978882</v>
       </c>
       <c r="G6" t="n">
-        <v>329201.2918937537</v>
+        <v>329166.553968318</v>
       </c>
       <c r="H6" t="n">
-        <v>329201.2918937535</v>
+        <v>329166.5539683179</v>
       </c>
       <c r="I6" t="n">
-        <v>329201.2918937535</v>
+        <v>329166.5539683177</v>
       </c>
       <c r="J6" t="n">
-        <v>280136.3471652088</v>
+        <v>280101.6092397734</v>
       </c>
       <c r="K6" t="n">
-        <v>256610.2834334522</v>
+        <v>256575.5455080167</v>
       </c>
       <c r="L6" t="n">
-        <v>285920.7490944981</v>
+        <v>285886.0111690622</v>
       </c>
       <c r="M6" t="n">
-        <v>247303.888181023</v>
+        <v>247269.1502555871</v>
       </c>
       <c r="N6" t="n">
-        <v>279361.7177617297</v>
+        <v>279326.9798362939</v>
       </c>
       <c r="O6" t="n">
-        <v>329201.2918937537</v>
+        <v>329166.5539683176</v>
       </c>
       <c r="P6" t="n">
-        <v>329201.2918937536</v>
+        <v>329166.5539683178</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>791.2679074282984</v>
+        <v>791.267907428298</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1202.24123721495</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>469.5770017178622</v>
+        <v>469.5770017178616</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490079</v>
+        <v>969.2208239490088</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099649</v>
@@ -26805,31 +26805,31 @@
         <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
+        <v>1172.708288099649</v>
+      </c>
+      <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
-      <c r="I4" t="n">
-        <v>1172.708288099649</v>
-      </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -26957,19 +26957,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129046</v>
+        <v>548.4699409129048</v>
       </c>
       <c r="C3" t="n">
-        <v>242.7979665153938</v>
+        <v>242.7979665153932</v>
       </c>
       <c r="D3" t="n">
-        <v>142.7969846892408</v>
+        <v>142.7969846892411</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974105</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267245</v>
+        <v>165.734263126724</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="C4" t="n">
-        <v>282.0514145515423</v>
+        <v>282.0514145515415</v>
       </c>
       <c r="D4" t="n">
-        <v>171.0078303821767</v>
+        <v>171.0078303821772</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489691</v>
+        <v>328.63599184897</v>
       </c>
       <c r="F4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.48746415064</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515423</v>
+        <v>282.0514145515415</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821765</v>
+        <v>171.0078303821772</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489693</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506407</v>
+        <v>203.4874641506398</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>282.0514145515423</v>
+        <v>282.0514145515415</v>
       </c>
       <c r="L4" t="n">
-        <v>171.0078303821767</v>
+        <v>171.0078303821772</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489691</v>
+        <v>328.63599184897</v>
       </c>
       <c r="N4" t="n">
-        <v>203.4874641506409</v>
+        <v>203.48746415064</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27385,19 +27385,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059417</v>
       </c>
       <c r="F2" t="n">
-        <v>378.5401248292731</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>225.5722460637382</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,16 +27427,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>158.7758131900531</v>
+        <v>24.94245412940913</v>
       </c>
       <c r="T2" t="n">
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871027</v>
       </c>
       <c r="V2" t="n">
-        <v>140.226671303815</v>
+        <v>140.2266713038148</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27445,7 +27445,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897337</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27455,7 +27455,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>28.27187229091501</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27476,7 +27476,7 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>48.77881175550657</v>
+        <v>48.77881175550655</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,25 +27503,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>26.91122581714238</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
-        <v>7.884010625681384</v>
+        <v>195.4095977920012</v>
       </c>
       <c r="U3" t="n">
-        <v>210.4614759249461</v>
+        <v>38.33818124377085</v>
       </c>
       <c r="V3" t="n">
-        <v>45.2749999831054</v>
+        <v>45.2749999831052</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715761</v>
+        <v>18.24739803715741</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27543,13 +27543,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>106.1588215297998</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.4336708318196</v>
@@ -27558,7 +27558,7 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>23.4337583055308</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>3.343082173845758</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27588,19 +27588,19 @@
         <v>206.7802557954962</v>
       </c>
       <c r="T4" t="n">
-        <v>223.7196734901001</v>
+        <v>36.19408632378003</v>
       </c>
       <c r="U4" t="n">
-        <v>147.8693847967324</v>
+        <v>98.7394943271302</v>
       </c>
       <c r="V4" t="n">
-        <v>64.61205615750814</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>98.99741117027114</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>38.18406822271729</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>114.2252240842877</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
-      </c>
-      <c r="G5" t="n">
-        <v>61.88563206150201</v>
       </c>
       <c r="H5" t="n">
         <v>306.8976264094352</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>87.84129258094072</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,16 +27667,16 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.1711248816495</v>
       </c>
       <c r="U5" t="n">
-        <v>251.0911747868545</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27698,22 +27698,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>73.55228793270625</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>40.12734643670257</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>95.7979731784105</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>30.79801895224394</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27771,25 +27771,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>118.8997966515568</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>84.10221590015855</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.5641028040799</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>149.5409427785072</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>97.55960140838857</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>294.0241623106385</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28011,7 +28011,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28020,13 +28020,13 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193758</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>6.561538634396783</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-1.028013658784193e-12</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28497,7 +28497,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>5.692683657798625e-12</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -28573,7 +28573,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-3.348081657766396e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-1.557513963650944e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28722,7 +28722,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>3.393552105990239e-12</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -28773,7 +28773,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>2.799680487441947e-12</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -28974,7 +28974,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>2.643218977027573e-12</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -29035,7 +29035,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-5.456144126071739e-13</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29220,7 +29220,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -29275,7 +29275,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-3.728828926787027e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -30229,7 +30229,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -31042,46 +31042,46 @@
         <v>2.204904285077002</v>
       </c>
       <c r="H2" t="n">
-        <v>22.58097600954485</v>
+        <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043118</v>
+        <v>85.00457245043123</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655543</v>
+        <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470275</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470024</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622681</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244294</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151092</v>
+        <v>238.1048576151093</v>
       </c>
       <c r="R2" t="n">
-        <v>138.5038187974683</v>
+        <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619225</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924579</v>
+        <v>9.651968507924584</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,13 +31118,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.6178210959085</v>
+        <v>40.61782109590852</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31133,34 +31133,34 @@
         <v>190.5001680621737</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405032</v>
+        <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975329</v>
+        <v>298.9161177975331</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829654</v>
+        <v>306.8275379829655</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292673</v>
+        <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550075</v>
+        <v>73.2466083355008</v>
       </c>
       <c r="S3" t="n">
-        <v>21.9129264128882</v>
+        <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820369</v>
+        <v>4.755130902820371</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390163</v>
+        <v>0.07761367088390166</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445819</v>
+        <v>0.9890441557445823</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620016</v>
+        <v>8.793501675620019</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639163</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114193</v>
+        <v>69.92542181114197</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31221,25 +31221,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784858</v>
+        <v>82.81896107784863</v>
       </c>
       <c r="R4" t="n">
-        <v>44.4710217664791</v>
+        <v>44.47102176647912</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181394</v>
+        <v>4.225915938181396</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061362</v>
+        <v>0.05394786304061364</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.180976512274564</v>
+        <v>3.180976512274563</v>
       </c>
       <c r="H5" t="n">
-        <v>32.57717570633189</v>
+        <v>32.57717570633187</v>
       </c>
       <c r="I5" t="n">
         <v>122.6345969894652</v>
       </c>
       <c r="J5" t="n">
-        <v>269.9814052586635</v>
+        <v>269.9814052586634</v>
       </c>
       <c r="K5" t="n">
-        <v>404.6321410232459</v>
+        <v>404.6321410232457</v>
       </c>
       <c r="L5" t="n">
-        <v>501.9819509607687</v>
+        <v>501.9819509607685</v>
       </c>
       <c r="M5" t="n">
-        <v>558.5516420109315</v>
+        <v>558.5516420109312</v>
       </c>
       <c r="N5" t="n">
-        <v>567.5895915264316</v>
+        <v>567.5895915264314</v>
       </c>
       <c r="O5" t="n">
-        <v>535.9587563325014</v>
+        <v>535.9587563325011</v>
       </c>
       <c r="P5" t="n">
-        <v>457.428398685723</v>
+        <v>457.4283986857228</v>
       </c>
       <c r="Q5" t="n">
-        <v>343.5096773398901</v>
+        <v>343.5096773398899</v>
       </c>
       <c r="R5" t="n">
-        <v>199.8170158391673</v>
+        <v>199.8170158391672</v>
       </c>
       <c r="S5" t="n">
-        <v>72.48650227345669</v>
+        <v>72.48650227345667</v>
       </c>
       <c r="T5" t="n">
         <v>13.92472468248191</v>
       </c>
       <c r="U5" t="n">
-        <v>0.254478120981965</v>
+        <v>0.2544781209819649</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.701972480128793</v>
+        <v>1.701972480128792</v>
       </c>
       <c r="H6" t="n">
-        <v>16.43747105808598</v>
+        <v>16.43747105808597</v>
       </c>
       <c r="I6" t="n">
-        <v>58.59861389917116</v>
+        <v>58.59861389917113</v>
       </c>
       <c r="J6" t="n">
-        <v>160.7990754142734</v>
+        <v>160.7990754142733</v>
       </c>
       <c r="K6" t="n">
-        <v>274.8312315829025</v>
+        <v>274.8312315829024</v>
       </c>
       <c r="L6" t="n">
-        <v>369.5445071437539</v>
+        <v>369.5445071437538</v>
       </c>
       <c r="M6" t="n">
-        <v>431.2410095484225</v>
+        <v>431.2410095484224</v>
       </c>
       <c r="N6" t="n">
-        <v>442.6546758734968</v>
+        <v>442.6546758734967</v>
       </c>
       <c r="O6" t="n">
-        <v>404.942548813801</v>
+        <v>404.9425488138008</v>
       </c>
       <c r="P6" t="n">
-        <v>325.0020957888043</v>
+        <v>325.0020957888042</v>
       </c>
       <c r="Q6" t="n">
-        <v>217.2552941301245</v>
+        <v>217.2552941301244</v>
       </c>
       <c r="R6" t="n">
         <v>105.6715895995754</v>
       </c>
       <c r="S6" t="n">
-        <v>31.61339233923435</v>
+        <v>31.61339233923434</v>
       </c>
       <c r="T6" t="n">
-        <v>6.860143461571754</v>
+        <v>6.860143461571751</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1119718736926838</v>
+        <v>0.1119718736926837</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.426876554378899</v>
+        <v>1.426876554378898</v>
       </c>
       <c r="H7" t="n">
-        <v>12.6862297289324</v>
+        <v>12.68622972893239</v>
       </c>
       <c r="I7" t="n">
-        <v>42.91006947168543</v>
+        <v>42.91006947168542</v>
       </c>
       <c r="J7" t="n">
         <v>100.8801723945881</v>
       </c>
       <c r="K7" t="n">
-        <v>165.7771124087484</v>
+        <v>165.7771124087483</v>
       </c>
       <c r="L7" t="n">
-        <v>212.1376288210228</v>
+        <v>212.1376288210227</v>
       </c>
       <c r="M7" t="n">
-        <v>223.6693857014122</v>
+        <v>223.6693857014121</v>
       </c>
       <c r="N7" t="n">
         <v>218.351027635091</v>
       </c>
       <c r="O7" t="n">
-        <v>201.6825151589375</v>
+        <v>201.6825151589374</v>
       </c>
       <c r="P7" t="n">
-        <v>172.5742334496078</v>
+        <v>172.5742334496077</v>
       </c>
       <c r="Q7" t="n">
         <v>119.481454021673</v>
       </c>
       <c r="R7" t="n">
-        <v>64.15755852689118</v>
+        <v>64.15755852689117</v>
       </c>
       <c r="S7" t="n">
-        <v>24.86656686131225</v>
+        <v>24.86656686131224</v>
       </c>
       <c r="T7" t="n">
-        <v>6.096654368709838</v>
+        <v>6.096654368709835</v>
       </c>
       <c r="U7" t="n">
-        <v>0.0778296302388491</v>
+        <v>0.07782963023884906</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31516,43 +31516,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,7 +31607,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31616,25 +31616,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31707,13 +31707,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.833130601869141</v>
+        <v>4.833130601869143</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639235</v>
+        <v>49.49729877639237</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285602</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203914</v>
+        <v>410.2059184203915</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975122</v>
+        <v>614.7923367975125</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544651</v>
+        <v>762.7042574544654</v>
       </c>
       <c r="M11" t="n">
-        <v>848.6554437954554</v>
+        <v>848.6554437954558</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180162</v>
+        <v>862.3875761180165</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956799</v>
+        <v>814.3281336956802</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620353</v>
+        <v>695.0102219620356</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825966</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
-        <v>303.5991401696627</v>
+        <v>303.5991401696628</v>
       </c>
       <c r="S11" t="n">
         <v>110.1349635900932</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968218</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495312</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.585952849858571</v>
+        <v>2.585952849858572</v>
       </c>
       <c r="H12" t="n">
-        <v>24.97486041837094</v>
+        <v>24.97486041837095</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469204</v>
+        <v>89.03390294469207</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>244.3158348193136</v>
       </c>
       <c r="K12" t="n">
-        <v>335.0187042770556</v>
+        <v>417.5746757598379</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747744</v>
+        <v>561.4806834747747</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821475</v>
+        <v>655.2214742821477</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340501</v>
+        <v>267.539807883333</v>
       </c>
       <c r="O12" t="n">
-        <v>615.263965992447</v>
+        <v>615.2639659924472</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383442</v>
+        <v>493.8035753383444</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
-        <v>48.0329399962765</v>
+        <v>48.03293999627652</v>
       </c>
       <c r="T12" t="n">
-        <v>10.42320468868432</v>
+        <v>10.42320468868433</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1701284769643797</v>
+        <v>0.1701284769643798</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535155</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092166</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.1969510279845</v>
+        <v>65.19695102798453</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085354</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329025</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100539</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770061</v>
+        <v>339.8400926770062</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531026</v>
+        <v>331.7594548531027</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806237</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
         <v>262.2068429493063</v>
       </c>
       <c r="Q13" t="n">
-        <v>181.5384268194574</v>
+        <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811703</v>
+        <v>97.48008457811707</v>
       </c>
       <c r="S13" t="n">
-        <v>37.78190904493537</v>
+        <v>37.78190904493538</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377478</v>
+        <v>9.263170188377481</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1182532364473722</v>
+        <v>0.1182532364473723</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32072,13 +32072,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>650.5350891770647</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437245</v>
@@ -32096,10 +32096,10 @@
         <v>561.87657862147</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270658</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32309,34 +32309,34 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>377.6350660745949</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742439</v>
@@ -32552,7 +32552,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742439</v>
@@ -32786,10 +32786,10 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>260.171071406825</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473073</v>
@@ -32798,19 +32798,19 @@
         <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797995</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33251,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,37 +33263,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>583.1096135868572</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33500,37 +33500,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>326.7634969305192</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>316.3837382263852</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>240.4469701760392</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622658</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7051287319848</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967683</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>175.6052721551105</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>320.9147064709964</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>465.7451325200306</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868052</v>
+        <v>6.092590538868137</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788333</v>
+        <v>60.38224240788344</v>
       </c>
       <c r="L2" t="n">
-        <v>112.184017997302</v>
+        <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197546</v>
+        <v>156.8156663197548</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504115</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405812</v>
+        <v>141.4033554405814</v>
       </c>
       <c r="P2" t="n">
-        <v>85.8349965691599</v>
+        <v>85.83499656916001</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065975</v>
+        <v>15.79916774065984</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781469</v>
+        <v>52.65872908781475</v>
       </c>
       <c r="L3" t="n">
-        <v>117.596605360629</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755146</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996322</v>
       </c>
       <c r="O3" t="n">
-        <v>138.0910091848229</v>
+        <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855694</v>
+        <v>91.30185944855702</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764996</v>
+        <v>10.60944440765002</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34857,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>92.63945645062405</v>
       </c>
       <c r="L4" t="n">
-        <v>174.6339172880152</v>
+        <v>174.6339172880153</v>
       </c>
       <c r="M4" t="n">
-        <v>187.5255871663199</v>
+        <v>169.4872848053136</v>
       </c>
       <c r="N4" t="n">
-        <v>187.5255871663199</v>
+        <v>187.5255871663201</v>
       </c>
       <c r="O4" t="n">
-        <v>164.382023673283</v>
+        <v>1.340357307400581</v>
       </c>
       <c r="P4" t="n">
-        <v>28.45844197068212</v>
+        <v>116.8989542469473</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.93550073197724</v>
+        <v>88.93550073197713</v>
       </c>
       <c r="K5" t="n">
-        <v>184.5422899782653</v>
+        <v>184.5422899782652</v>
       </c>
       <c r="L5" t="n">
-        <v>266.2155359907815</v>
+        <v>266.2155359907812</v>
       </c>
       <c r="M5" t="n">
-        <v>328.2054087836588</v>
+        <v>328.2054087836585</v>
       </c>
       <c r="N5" t="n">
-        <v>338.1765279298407</v>
+        <v>338.1765279298405</v>
       </c>
       <c r="O5" t="n">
-        <v>305.8605449108146</v>
+        <v>305.8605449108144</v>
       </c>
       <c r="P5" t="n">
-        <v>226.1954029304534</v>
+        <v>226.1954029304533</v>
       </c>
       <c r="Q5" t="n">
-        <v>121.2039874654406</v>
+        <v>121.2039874654404</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>150.2105388084582</v>
+        <v>33.96144874760662</v>
       </c>
       <c r="K6" t="n">
-        <v>136.9897926085435</v>
+        <v>136.9897926085434</v>
       </c>
       <c r="L6" t="n">
-        <v>230.9901273638798</v>
+        <v>230.9901273638796</v>
       </c>
       <c r="M6" t="n">
-        <v>289.1069756264042</v>
+        <v>289.1069756264041</v>
       </c>
       <c r="N6" t="n">
-        <v>311.3129637901635</v>
+        <v>427.5620538510138</v>
       </c>
       <c r="O6" t="n">
-        <v>262.3463043693565</v>
+        <v>262.3463043693563</v>
       </c>
       <c r="P6" t="n">
-        <v>191.0276883744741</v>
+        <v>191.0276883744739</v>
       </c>
       <c r="Q6" t="n">
-        <v>287.3508077799521</v>
+        <v>287.350807779952</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>7.52099227791534</v>
+        <v>7.520992277915298</v>
       </c>
       <c r="K7" t="n">
-        <v>143.5076205828655</v>
+        <v>143.5076205828654</v>
       </c>
       <c r="L7" t="n">
-        <v>239.727654081339</v>
+        <v>239.7276540813389</v>
       </c>
       <c r="M7" t="n">
-        <v>263.2532626632528</v>
+        <v>263.2532626632527</v>
       </c>
       <c r="N7" t="n">
-        <v>262.4832000143197</v>
+        <v>262.4832000143196</v>
       </c>
       <c r="O7" t="n">
-        <v>226.2676430729772</v>
+        <v>226.2676430729771</v>
       </c>
       <c r="P7" t="n">
-        <v>169.8527927145013</v>
+        <v>169.8527927145012</v>
       </c>
       <c r="Q7" t="n">
-        <v>33.31941076997866</v>
+        <v>33.31941076997862</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>397.620397467641</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>474.3640795072293</v>
       </c>
       <c r="P9" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35340,7 +35340,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35349,7 +35349,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937051</v>
+        <v>229.1600138937052</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525317</v>
+        <v>394.7024857525319</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844779</v>
+        <v>526.9378424844781</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681827</v>
+        <v>618.3092105681831</v>
       </c>
       <c r="N11" t="n">
-        <v>632.9745125214254</v>
+        <v>632.9745125214256</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739931</v>
+        <v>584.2299222739935</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067658</v>
+        <v>463.7772262067661</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081471</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553057</v>
+        <v>88.01360235553068</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>117.4782081526469</v>
       </c>
       <c r="K12" t="n">
-        <v>197.1772653026966</v>
+        <v>279.7332367854789</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949002</v>
+        <v>422.9263036949005</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601292</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507168</v>
+        <v>136.1980957999997</v>
       </c>
       <c r="O12" t="n">
-        <v>472.6677215480025</v>
+        <v>472.6677215480028</v>
       </c>
       <c r="P12" t="n">
-        <v>359.829167924014</v>
+        <v>359.8291679240141</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655342</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186267</v>
+        <v>59.91672319186273</v>
       </c>
       <c r="K13" t="n">
-        <v>229.6099018070196</v>
+        <v>229.6099018070197</v>
       </c>
       <c r="L13" t="n">
-        <v>349.90893007037</v>
+        <v>349.9089300703702</v>
       </c>
       <c r="M13" t="n">
-        <v>379.4239696388467</v>
+        <v>379.4239696388468</v>
       </c>
       <c r="N13" t="n">
-        <v>375.8916272323312</v>
+        <v>375.8916272323313</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946633</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
         <v>259.4854022141998</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776303</v>
+        <v>95.37638356776309</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35735,7 +35735,7 @@
         <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>519.1933770937314</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992801</v>
@@ -35744,10 +35744,10 @@
         <v>427.9021712071398</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410443</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36434,10 +36434,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>122.329632432466</v>
       </c>
       <c r="L24" t="n">
         <v>500.3288951674331</v>
@@ -36446,19 +36446,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36516,7 +36516,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096391</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
         <v>394.3420143191315</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999253</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>440.9755796648388</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,28 +37148,28 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>188.9220579561602</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>182.409330812055</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>101.892590396165</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402476</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>409.1088842875403</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.558608182438</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>37.76383318075146</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>285.360777932</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
